--- a/3A.xlsx
+++ b/3A.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +573,12 @@
       </c>
       <c r="B8" s="1">
         <v>5232</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.98719999999999997</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
